--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -121,12 +121,12 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -136,19 +136,19 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>community</t>
   </si>
   <si>
     <t>hand</t>
@@ -1515,13 +1515,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.7056277056277056</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L23">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="M23">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="N23">
         <v>0.95</v>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1541,25 +1541,25 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6923076923076923</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="M24">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1645,25 +1645,25 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5823170731707317</v>
+        <v>0.578125</v>
       </c>
       <c r="L28">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>137</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1671,25 +1671,25 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.578125</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1697,25 +1697,25 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1723,25 +1723,25 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5671641791044776</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1749,25 +1749,25 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5652173913043478</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="10:17">
